--- a/Mark & Infomation Group/Mark Group 3.xlsx
+++ b/Mark & Infomation Group/Mark Group 3.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Version Control" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Iteration 2, Specs and Design" sheetId="4" r:id="rId4"/>
     <sheet name="Iteration 3" sheetId="5" r:id="rId5"/>
     <sheet name="Iteration 4 (thuat toan)" sheetId="6" r:id="rId6"/>
+    <sheet name="Final release" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="138">
   <si>
     <t>Đề tài:</t>
   </si>
@@ -421,13 +422,25 @@
   </si>
   <si>
     <t>các bạn không làm unit test, nhưng có update 1 số tính năng</t>
+  </si>
+  <si>
+    <t>Final release</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>các bạn làm hư code rồi để đó không nói gì, làm sát giờ nhóm mình và bạn Thành nhóm 28 phải sửa…..  Thành viên làm hư code : 0812638</t>
+  </si>
+  <si>
+    <t>unit test còn có sai sót và thiếu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,6 +586,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -607,6 +621,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -782,14 +797,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
@@ -799,7 +814,7 @@
     <col min="6" max="6" width="59.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -807,7 +822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -819,7 +834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -831,7 +846,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -841,7 +856,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -853,7 +868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -865,7 +880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -877,7 +892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>13</v>
@@ -889,7 +904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>15</v>
@@ -901,7 +916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -911,7 +926,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -923,7 +938,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>20</v>
@@ -935,7 +950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>22</v>
@@ -947,7 +962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>24</v>
@@ -959,7 +974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -971,7 +986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -981,7 +996,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -993,7 +1008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>31</v>
@@ -1005,7 +1020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>33</v>
@@ -1017,7 +1032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>35</v>
@@ -1029,7 +1044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>37</v>
@@ -1041,7 +1056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -1051,7 +1066,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>40</v>
@@ -1063,7 +1078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>42</v>
@@ -1075,7 +1090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>44</v>
@@ -1087,7 +1102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>46</v>
@@ -1099,7 +1114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>48</v>
@@ -1111,7 +1126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>50</v>
       </c>
@@ -1121,7 +1136,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>51</v>
@@ -1133,7 +1148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>53</v>
@@ -1145,7 +1160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>55</v>
@@ -1157,7 +1172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>57</v>
@@ -1169,7 +1184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>59</v>
@@ -1181,7 +1196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>61</v>
       </c>
@@ -1191,7 +1206,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>115</v>
@@ -1203,7 +1218,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>62</v>
@@ -1215,7 +1230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>64</v>
@@ -1227,7 +1242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>66</v>
@@ -1239,7 +1254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>114</v>
@@ -1251,7 +1266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>68</v>
       </c>
@@ -1261,7 +1276,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>69</v>
@@ -1273,7 +1288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>71</v>
@@ -1285,7 +1300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>73</v>
@@ -1297,7 +1312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>75</v>
@@ -1309,7 +1324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>77</v>
       </c>
@@ -1319,7 +1334,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>78</v>
@@ -1331,7 +1346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>80</v>
@@ -1343,7 +1358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>82</v>
@@ -1355,7 +1370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>84</v>
@@ -1367,7 +1382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>86</v>
@@ -1379,7 +1394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>88</v>
       </c>
@@ -1389,7 +1404,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>89</v>
@@ -1401,7 +1416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>91</v>
@@ -1413,7 +1428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>93</v>
@@ -1425,7 +1440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>95</v>
@@ -1437,7 +1452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>97</v>
@@ -1449,7 +1464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>99</v>
       </c>
@@ -1459,7 +1474,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="1" t="s">
         <v>100</v>
@@ -1471,7 +1486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
         <v>102</v>
@@ -1483,7 +1498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
         <v>104</v>
@@ -1495,7 +1510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
         <v>106</v>
@@ -1507,7 +1522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
         <v>108</v>
@@ -1525,20 +1540,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1547,7 +1562,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -1559,7 +1574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1573,7 +1588,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1583,7 +1598,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -1595,7 +1610,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -1607,7 +1622,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -1619,7 +1634,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>13</v>
@@ -1631,7 +1646,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>15</v>
@@ -1643,7 +1658,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -1653,7 +1668,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -1665,7 +1680,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>20</v>
@@ -1677,7 +1692,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>22</v>
@@ -1689,7 +1704,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>24</v>
@@ -1701,7 +1716,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -1713,7 +1728,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -1723,7 +1738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -1735,7 +1750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>31</v>
@@ -1747,7 +1762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>33</v>
@@ -1759,7 +1774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>35</v>
@@ -1771,7 +1786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>37</v>
@@ -1783,7 +1798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -1793,7 +1808,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>40</v>
@@ -1805,7 +1820,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>42</v>
@@ -1817,7 +1832,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>44</v>
@@ -1829,7 +1844,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>46</v>
@@ -1841,7 +1856,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>48</v>
@@ -1853,7 +1868,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>50</v>
       </c>
@@ -1863,7 +1878,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>51</v>
@@ -1875,7 +1890,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>53</v>
@@ -1887,7 +1902,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>55</v>
@@ -1899,7 +1914,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>57</v>
@@ -1911,7 +1926,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>59</v>
@@ -1923,7 +1938,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>61</v>
       </c>
@@ -1933,7 +1948,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>115</v>
@@ -1945,7 +1960,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>62</v>
@@ -1957,7 +1972,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>64</v>
@@ -1969,7 +1984,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>66</v>
@@ -1981,7 +1996,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>114</v>
@@ -1993,7 +2008,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>68</v>
       </c>
@@ -2003,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>69</v>
@@ -2015,7 +2030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>71</v>
@@ -2027,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>73</v>
@@ -2039,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>75</v>
@@ -2051,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>77</v>
       </c>
@@ -2061,7 +2076,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>78</v>
@@ -2073,7 +2088,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>80</v>
@@ -2085,7 +2100,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>82</v>
@@ -2097,7 +2112,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>84</v>
@@ -2109,7 +2124,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>86</v>
@@ -2121,7 +2136,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>88</v>
       </c>
@@ -2131,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>89</v>
@@ -2143,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>91</v>
@@ -2155,7 +2170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>93</v>
@@ -2167,7 +2182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>95</v>
@@ -2179,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>97</v>
@@ -2191,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>99</v>
       </c>
@@ -2201,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="1" t="s">
         <v>100</v>
@@ -2213,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
         <v>102</v>
@@ -2225,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
         <v>104</v>
@@ -2237,7 +2252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
         <v>106</v>
@@ -2249,7 +2264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
         <v>108</v>
@@ -2267,14 +2282,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
@@ -2284,7 +2299,7 @@
     <col min="6" max="6" width="59.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2292,7 +2307,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -2304,7 +2319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2316,7 +2331,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -2326,7 +2341,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -2338,7 +2353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -2350,7 +2365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -2362,7 +2377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>13</v>
@@ -2374,7 +2389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>15</v>
@@ -2386,7 +2401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -2396,7 +2411,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -2408,7 +2423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>20</v>
@@ -2420,7 +2435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>22</v>
@@ -2432,7 +2447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>24</v>
@@ -2444,7 +2459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -2456,7 +2471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -2466,7 +2481,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -2478,7 +2493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>31</v>
@@ -2490,7 +2505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>33</v>
@@ -2502,7 +2517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>35</v>
@@ -2514,7 +2529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>37</v>
@@ -2526,7 +2541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -2536,7 +2551,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>40</v>
@@ -2548,7 +2563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>42</v>
@@ -2560,7 +2575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>44</v>
@@ -2572,7 +2587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>46</v>
@@ -2584,7 +2599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>48</v>
@@ -2596,7 +2611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>50</v>
       </c>
@@ -2606,7 +2621,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>51</v>
@@ -2618,7 +2633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>53</v>
@@ -2630,7 +2645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>55</v>
@@ -2642,7 +2657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>57</v>
@@ -2654,7 +2669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>59</v>
@@ -2666,7 +2681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>61</v>
       </c>
@@ -2676,7 +2691,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>115</v>
@@ -2688,7 +2703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>62</v>
@@ -2700,7 +2715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>64</v>
@@ -2712,7 +2727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>66</v>
@@ -2724,7 +2739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>114</v>
@@ -2736,7 +2751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>68</v>
       </c>
@@ -2746,7 +2761,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>69</v>
@@ -2758,7 +2773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>71</v>
@@ -2770,7 +2785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>73</v>
@@ -2782,7 +2797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>75</v>
@@ -2794,7 +2809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>77</v>
       </c>
@@ -2804,7 +2819,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>78</v>
@@ -2816,7 +2831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>80</v>
@@ -2828,7 +2843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>82</v>
@@ -2840,7 +2855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>84</v>
@@ -2852,7 +2867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>86</v>
@@ -2864,7 +2879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>88</v>
       </c>
@@ -2874,7 +2889,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>89</v>
@@ -2886,7 +2901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>91</v>
@@ -2898,7 +2913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>93</v>
@@ -2910,7 +2925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>95</v>
@@ -2922,7 +2937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>97</v>
@@ -2934,7 +2949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>99</v>
       </c>
@@ -2944,7 +2959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="1" t="s">
         <v>100</v>
@@ -2956,7 +2971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
         <v>102</v>
@@ -2968,7 +2983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
         <v>104</v>
@@ -2980,7 +2995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
         <v>106</v>
@@ -2992,7 +3007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
         <v>108</v>
@@ -3010,14 +3025,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D54" sqref="A1:F62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
@@ -3027,7 +3042,7 @@
     <col min="6" max="6" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3036,7 +3051,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -3048,7 +3063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3063,7 +3078,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -3076,7 +3091,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -3088,7 +3103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -3100,7 +3115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -3112,7 +3127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>13</v>
@@ -3124,7 +3139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>15</v>
@@ -3136,7 +3151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -3149,7 +3164,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -3161,7 +3176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>20</v>
@@ -3173,7 +3188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>22</v>
@@ -3185,7 +3200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>24</v>
@@ -3197,7 +3212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -3209,7 +3224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -3222,7 +3237,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -3234,7 +3249,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>31</v>
@@ -3246,7 +3261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>33</v>
@@ -3258,7 +3273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>35</v>
@@ -3270,7 +3285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>37</v>
@@ -3282,7 +3297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -3295,7 +3310,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>40</v>
@@ -3307,7 +3322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>42</v>
@@ -3319,7 +3334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>44</v>
@@ -3331,7 +3346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>46</v>
@@ -3343,7 +3358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>48</v>
@@ -3355,7 +3370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>50</v>
       </c>
@@ -3368,7 +3383,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>51</v>
@@ -3380,7 +3395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>53</v>
@@ -3392,7 +3407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>55</v>
@@ -3404,7 +3419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>57</v>
@@ -3416,7 +3431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>59</v>
@@ -3428,7 +3443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>61</v>
       </c>
@@ -3441,7 +3456,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>115</v>
@@ -3453,7 +3468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>62</v>
@@ -3465,7 +3480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>64</v>
@@ -3477,7 +3492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>66</v>
@@ -3489,7 +3504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>114</v>
@@ -3501,7 +3516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>68</v>
       </c>
@@ -3514,7 +3529,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>69</v>
@@ -3526,7 +3541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>71</v>
@@ -3538,7 +3553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>73</v>
@@ -3550,7 +3565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>75</v>
@@ -3562,7 +3577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>77</v>
       </c>
@@ -3575,7 +3590,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>78</v>
@@ -3587,7 +3602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>80</v>
@@ -3599,7 +3614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>82</v>
@@ -3611,7 +3626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>84</v>
@@ -3623,7 +3638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>86</v>
@@ -3635,7 +3650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>88</v>
       </c>
@@ -3648,7 +3663,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>89</v>
@@ -3660,7 +3675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>91</v>
@@ -3672,7 +3687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>93</v>
@@ -3684,7 +3699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>95</v>
@@ -3696,7 +3711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>97</v>
@@ -3708,7 +3723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>99</v>
       </c>
@@ -3721,7 +3736,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="1" t="s">
         <v>100</v>
@@ -3733,7 +3748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
         <v>102</v>
@@ -3745,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
         <v>104</v>
@@ -3757,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
         <v>106</v>
@@ -3769,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
         <v>108</v>
@@ -3788,21 +3803,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="A1:F62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3811,7 +3826,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -3823,7 +3838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3838,7 +3853,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -3851,7 +3866,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -3863,7 +3878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -3875,7 +3890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -3887,7 +3902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>13</v>
@@ -3899,7 +3914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>15</v>
@@ -3911,7 +3926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -3924,7 +3939,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -3936,7 +3951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>20</v>
@@ -3948,7 +3963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>22</v>
@@ -3960,7 +3975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>24</v>
@@ -3972,7 +3987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -3984,7 +3999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -3997,7 +4012,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -4009,7 +4024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>31</v>
@@ -4021,7 +4036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>33</v>
@@ -4033,7 +4048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>35</v>
@@ -4045,7 +4060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>37</v>
@@ -4057,7 +4072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -4070,7 +4085,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>40</v>
@@ -4082,7 +4097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>42</v>
@@ -4094,7 +4109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>44</v>
@@ -4106,7 +4121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>46</v>
@@ -4118,7 +4133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>48</v>
@@ -4130,7 +4145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>50</v>
       </c>
@@ -4143,7 +4158,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>51</v>
@@ -4155,7 +4170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>53</v>
@@ -4167,7 +4182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>55</v>
@@ -4179,7 +4194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>57</v>
@@ -4191,7 +4206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>59</v>
@@ -4203,7 +4218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>61</v>
       </c>
@@ -4216,7 +4231,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>115</v>
@@ -4228,7 +4243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>62</v>
@@ -4240,7 +4255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>64</v>
@@ -4252,7 +4267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>66</v>
@@ -4264,7 +4279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>114</v>
@@ -4276,7 +4291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>68</v>
       </c>
@@ -4289,7 +4304,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>69</v>
@@ -4301,7 +4316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>71</v>
@@ -4313,7 +4328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>73</v>
@@ -4325,7 +4340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>75</v>
@@ -4337,7 +4352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>77</v>
       </c>
@@ -4350,7 +4365,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>78</v>
@@ -4362,7 +4377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>80</v>
@@ -4374,7 +4389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>82</v>
@@ -4386,7 +4401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>84</v>
@@ -4398,7 +4413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>86</v>
@@ -4410,7 +4425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>88</v>
       </c>
@@ -4423,7 +4438,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>89</v>
@@ -4435,7 +4450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>91</v>
@@ -4447,7 +4462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>93</v>
@@ -4459,7 +4474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>95</v>
@@ -4471,7 +4486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>97</v>
@@ -4483,7 +4498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>99</v>
       </c>
@@ -4496,7 +4511,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="1" t="s">
         <v>100</v>
@@ -4508,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
         <v>102</v>
@@ -4520,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
         <v>104</v>
@@ -4532,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
         <v>106</v>
@@ -4544,7 +4559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
         <v>108</v>
@@ -4562,21 +4577,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4585,7 +4600,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -4597,7 +4612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -4612,7 +4627,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -4625,7 +4640,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -4637,7 +4652,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -4649,7 +4664,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -4661,7 +4676,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>13</v>
@@ -4673,7 +4688,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>15</v>
@@ -4685,7 +4700,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -4695,7 +4710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>18</v>
@@ -4707,7 +4722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>20</v>
@@ -4719,7 +4734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>22</v>
@@ -4731,7 +4746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>24</v>
@@ -4743,7 +4758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>26</v>
@@ -4755,7 +4770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -4768,7 +4783,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -4780,7 +4795,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>31</v>
@@ -4792,7 +4807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>33</v>
@@ -4804,7 +4819,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>35</v>
@@ -4816,7 +4831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>37</v>
@@ -4828,7 +4843,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -4841,7 +4856,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>40</v>
@@ -4853,7 +4868,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>42</v>
@@ -4865,7 +4880,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>44</v>
@@ -4877,7 +4892,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>46</v>
@@ -4889,7 +4904,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>48</v>
@@ -4901,7 +4916,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>50</v>
       </c>
@@ -4914,7 +4929,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>51</v>
@@ -4926,7 +4941,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>53</v>
@@ -4938,7 +4953,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>55</v>
@@ -4950,7 +4965,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>57</v>
@@ -4962,7 +4977,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>59</v>
@@ -4974,7 +4989,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>61</v>
       </c>
@@ -4987,7 +5002,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>115</v>
@@ -4999,7 +5014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>62</v>
@@ -5011,7 +5026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>64</v>
@@ -5023,7 +5038,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>66</v>
@@ -5035,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>114</v>
@@ -5047,7 +5062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>68</v>
       </c>
@@ -5060,7 +5075,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>69</v>
@@ -5072,7 +5087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>71</v>
@@ -5084,7 +5099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>73</v>
@@ -5096,7 +5111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>75</v>
@@ -5108,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>77</v>
       </c>
@@ -5121,7 +5136,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>78</v>
@@ -5133,7 +5148,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>80</v>
@@ -5145,7 +5160,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>82</v>
@@ -5157,7 +5172,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>84</v>
@@ -5169,7 +5184,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>86</v>
@@ -5181,7 +5196,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>88</v>
       </c>
@@ -5194,7 +5209,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>89</v>
@@ -5206,7 +5221,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>91</v>
@@ -5218,7 +5233,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>93</v>
@@ -5230,7 +5245,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>95</v>
@@ -5242,7 +5257,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>97</v>
@@ -5254,7 +5269,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>99</v>
       </c>
@@ -5267,7 +5282,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="1" t="s">
         <v>100</v>
@@ -5279,7 +5294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="1" t="s">
         <v>102</v>
@@ -5291,7 +5306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="1" t="s">
         <v>104</v>
@@ -5303,7 +5318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="1" t="s">
         <v>106</v>
@@ -5315,7 +5330,760 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2">
+        <f xml:space="preserve"> SUM(D5:D62)</f>
+        <v>380</v>
+      </c>
+      <c r="E3" s="2">
+        <f>SUM(E4:E62)</f>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="E4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="E10">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>136</v>
+      </c>
+      <c r="J10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="E16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="E22">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="E28">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="E34">
+        <v>40</v>
+      </c>
+      <c r="F34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="E40">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="E45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
+      <c r="E51">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
+      <c r="E57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" t="s">
+        <v>107</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="1" t="s">
         <v>108</v>

--- a/Mark & Infomation Group/Mark Group 3.xlsx
+++ b/Mark & Infomation Group/Mark Group 3.xlsx
@@ -5352,7 +5352,7 @@
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5575,7 +5575,7 @@
         <v>32</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -5587,7 +5587,7 @@
         <v>34</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -5599,7 +5599,7 @@
         <v>36</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -5611,7 +5611,7 @@
         <v>38</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -5776,7 +5776,7 @@
         <v>112</v>
       </c>
       <c r="D35">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -5788,7 +5788,7 @@
         <v>63</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -5800,7 +5800,7 @@
         <v>65</v>
       </c>
       <c r="D37">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -5824,7 +5824,7 @@
         <v>113</v>
       </c>
       <c r="D39">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -5986,7 +5986,7 @@
         <v>92</v>
       </c>
       <c r="D53">
-        <v>9</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -5998,7 +5998,7 @@
         <v>94</v>
       </c>
       <c r="D54">
-        <v>9</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -6010,7 +6010,7 @@
         <v>96</v>
       </c>
       <c r="D55">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">

--- a/Mark & Infomation Group/Mark Group 3.xlsx
+++ b/Mark & Infomation Group/Mark Group 3.xlsx
@@ -5352,7 +5352,7 @@
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
